--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3946383.288637056</v>
+        <v>3943811.33411915</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>83.85112090809149</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>44.90925090849413</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>228.0738759828843</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>249.4237682275164</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>358.5239983301257</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.03250833502995</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>139.6528551206849</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>27.24739666248536</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.3978296695742</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428213</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.3178054178675</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603491</v>
       </c>
       <c r="X28" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.01627976944155</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,13 +3478,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183176</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.5099885583422</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,22 +4407,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>184.027325963587</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380754</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1391.463776022345</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C5" t="n">
-        <v>1022.501259081933</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>1022.501259081933</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>1022.501259081933</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>611.5153542923256</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.202948062278</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>2168.202948062278</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1778.063616086466</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2310.5492509541</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C8" t="n">
-        <v>1941.586734013689</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D8" t="n">
-        <v>1583.321035406938</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>1197.532782808694</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>786.5468780190865</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018222</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="9">
@@ -4893,10 +4893,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.6820060902423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171305</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473703</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,67 +5495,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>426.0170212122717</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6783,22 +6783,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,7 +7190,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7254,19 +7254,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>119.2902967703784</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>119.2902967703784</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,10 +8070,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>139.9994244361425</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.18682368252064</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194173</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.31459260779044</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440137</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624193</v>
       </c>
       <c r="X28" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25837,10 +25837,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.725617676</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176763</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176762</v>
-      </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="I2" t="n">
-        <v>786967.9346977562</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977558</v>
-      </c>
       <c r="O2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977554</v>
       </c>
       <c r="P2" t="n">
         <v>786967.9346977556</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577091</v>
+        <v>944372.7777577084</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
+        <v>5067.592601670504</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5067.592601670436</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5067.592601670425</v>
+      </c>
+      <c r="H4" t="n">
         <v>5067.592601670437</v>
       </c>
-      <c r="F4" t="n">
-        <v>5067.592601670422</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
+        <v>5067.59260167043</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5067.592601670429</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5067.592601670437</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5067.592601670438</v>
+      </c>
+      <c r="M4" t="n">
         <v>5067.59260167046</v>
       </c>
-      <c r="H4" t="n">
-        <v>5067.59260167046</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5067.592601670443</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
+        <v>5067.592601670456</v>
+      </c>
+      <c r="O4" t="n">
         <v>5067.592601670437</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5067.592601670442</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5067.592601670437</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5067.592601670443</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5067.592601670437</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5067.592601670438</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-73375.73758800924</v>
+        <v>-73375.73758800939</v>
       </c>
       <c r="C6" t="n">
-        <v>516592.1416265352</v>
+        <v>516592.1416265353</v>
       </c>
       <c r="D6" t="n">
-        <v>516592.1416265352</v>
+        <v>516592.1416265351</v>
       </c>
       <c r="E6" t="n">
-        <v>-263594.9654855309</v>
+        <v>-263629.7034109657</v>
       </c>
       <c r="F6" t="n">
-        <v>680777.8122721781</v>
+        <v>680743.0743467426</v>
       </c>
       <c r="G6" t="n">
-        <v>680777.8122721785</v>
+        <v>680743.0743467425</v>
       </c>
       <c r="H6" t="n">
-        <v>680777.8122721782</v>
+        <v>680743.0743467424</v>
       </c>
       <c r="I6" t="n">
-        <v>680777.8122721787</v>
+        <v>680743.0743467427</v>
       </c>
       <c r="J6" t="n">
-        <v>504354.5930795853</v>
+        <v>504319.8551541498</v>
       </c>
       <c r="K6" t="n">
-        <v>680777.8122721786</v>
+        <v>680743.0743467424</v>
       </c>
       <c r="L6" t="n">
-        <v>680777.8122721782</v>
+        <v>680743.0743467427</v>
       </c>
       <c r="M6" t="n">
-        <v>556569.3015641199</v>
+        <v>556534.5636386841</v>
       </c>
       <c r="N6" t="n">
-        <v>680777.8122721784</v>
+        <v>680743.0743467426</v>
       </c>
       <c r="O6" t="n">
-        <v>680777.812272178</v>
+        <v>680743.0743467424</v>
       </c>
       <c r="P6" t="n">
-        <v>680777.8122721782</v>
+        <v>680743.0743467425</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26796,7 +26796,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,19 +26966,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245874</v>
+        <v>990.2318361245868</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>281.421770862916</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>23.94594161440352</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>96.92615468724685</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>320.3636408625134</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>185.7102940379107</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>83.12091415361562</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>164.3604017932786</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>11.20710234834337</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.7994718469074</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>146.6290191212929</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.139538119038411e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>431.3680753731359</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>277.2922978908111</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,28 +32315,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33032,31 +33032,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967487</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>587.1221002143859</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.948695672725</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,22 +33974,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>163.572382128305</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,7 +34454,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6875824748315</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>297.3936679588056</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>134.6960534463666</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.8381222824185</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>444.5258557699415</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>25.73094315394599</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,7 +38102,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
